--- a/sweetest/testcase/Baidu-TestCase.xlsx
+++ b/sweetest/testcase/Baidu-TestCase.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,14 +393,6 @@
   </si>
   <si>
     <t>新股预告表格#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新股预告表格#2#2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code=text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -914,24 +906,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="24.625" customWidth="1"/>
-    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="7.25" customWidth="1"/>
     <col min="11" max="11" width="9.25" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
@@ -1506,7 +1498,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>93</v>
@@ -1529,21 +1521,21 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>99</v>
       </c>
+      <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1554,21 +1546,11 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="2">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="4"/>
@@ -1576,15 +1558,15 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="4"/>
@@ -1592,7 +1574,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
@@ -1608,7 +1590,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
@@ -1624,7 +1606,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="2"/>
@@ -1640,32 +1622,16 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G27">
       <formula1>INDIRECT(F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F2:F28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F2:F27">
       <formula1>页面</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E27">
       <formula1>关键字</formula1>
     </dataValidation>
   </dataValidations>

--- a/sweetest/testcase/Baidu-TestCase.xlsx
+++ b/sweetest/testcase/Baidu-TestCase.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="百度搜索页面">ElementsMap!$D$2:$D$4</definedName>
     <definedName name="关键字">ElementsMap!$A$2:$A$8</definedName>
-    <definedName name="通用">ElementsMap!$B$2:$B$16</definedName>
+    <definedName name="通用">ElementsMap!$B$2:$B$17</definedName>
     <definedName name="雪球行情中心">ElementsMap!$E$2</definedName>
     <definedName name="页面">ElementsMap!$B$1:$E$1</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,173 +242,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>搜索结果#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title=text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试_百度搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索：搜狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*link#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索：知乎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords=知乎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知乎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面title</t>
+  </si>
+  <si>
+    <t>页面title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAIDU_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAIDU_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索：雪球行情中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords=雪球行情中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪球行情中心</t>
+  </si>
+  <si>
+    <t>雪球行情中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新股预告表格#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新股预告表格#2#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name=text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*&lt;name&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link#注册机构号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button#注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button#提问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords=搜狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*&lt;title&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;title&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索：&lt;测试数据&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;keywords&gt;_百度搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索结果#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title=text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化测试_百度搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;title&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索：搜狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keywords=搜狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量赋值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*link#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索：知乎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link#登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keywords=知乎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link#注册机构号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*知乎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知乎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>div#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面title</t>
-  </si>
-  <si>
-    <t>页面title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAIDU_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAIDU_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索：雪球行情中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keywords=雪球行情中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*&lt;title&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪球行情中心</t>
-  </si>
-  <si>
-    <t>雪球行情中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新股预告表格#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新股预告表格#2#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name=text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*&lt;name&gt;</t>
+    <t>keywords=&lt;_keywords&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度搜索页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_title&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAIDU_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,12 +934,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="P34" sqref="P34"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -922,7 +950,7 @@
     <col min="4" max="4" width="8.875" customWidth="1"/>
     <col min="5" max="5" width="5.625" customWidth="1"/>
     <col min="7" max="7" width="18.375" customWidth="1"/>
-    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="29.5" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="7.25" customWidth="1"/>
     <col min="11" max="11" width="9.25" customWidth="1"/>
@@ -988,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>12</v>
@@ -1022,7 +1050,7 @@
         <v>44</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>42</v>
@@ -1104,10 +1132,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1186,10 +1214,10 @@
         <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1203,7 +1231,7 @@
         <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2">
@@ -1219,7 +1247,7 @@
         <v>56</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1242,11 +1270,11 @@
         <v>44</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
@@ -1268,10 +1296,10 @@
         <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1282,10 +1310,10 @@
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="2">
@@ -1301,7 +1329,7 @@
         <v>55</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1324,7 +1352,7 @@
         <v>44</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="3"/>
@@ -1339,20 +1367,18 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="4"/>
@@ -1365,16 +1391,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1389,16 +1415,16 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1410,10 +1436,10 @@
     </row>
     <row r="18" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="2">
@@ -1429,12 +1455,14 @@
         <v>55</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
@@ -1452,11 +1480,11 @@
         <v>44</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
@@ -1478,10 +1506,10 @@
         <v>12</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1501,14 +1529,14 @@
         <v>15</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="4"/>
@@ -1527,13 +1555,13 @@
         <v>14</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1543,14 +1571,28 @@
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="6"/>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="4"/>
@@ -1558,15 +1600,23 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="4"/>
@@ -1574,15 +1624,25 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="4"/>
@@ -1622,16 +1682,48 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
+    <row r="28" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G29">
       <formula1>INDIRECT(F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F2:F27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F2:F29">
       <formula1>页面</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29">
       <formula1>关键字</formula1>
     </dataValidation>
   </dataValidations>
@@ -1641,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1670,7 +1762,7 @@
         <v>45</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -1678,14 +1770,14 @@
         <v>19</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -1693,7 +1785,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="9" t="s">
@@ -1705,7 +1797,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="9" t="s">
@@ -1717,7 +1809,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1727,7 +1819,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1737,7 +1829,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1747,7 +1839,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1755,7 +1847,7 @@
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1763,7 +1855,7 @@
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1771,7 +1863,7 @@
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1779,7 +1871,7 @@
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1787,7 +1879,7 @@
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1795,15 +1887,15 @@
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="11" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="9" t="s">
-        <v>40</v>
+      <c r="B15" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1811,10 +1903,18 @@
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sweetest/testcase/Baidu-TestCase.xlsx
+++ b/sweetest/testcase/Baidu-TestCase.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,6 +433,10 @@
   </si>
   <si>
     <t>BAIDU_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -939,7 +943,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1596,7 +1600,9 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>

--- a/sweetest/testcase/Baidu-TestCase.xlsx
+++ b/sweetest/testcase/Baidu-TestCase.xlsx
@@ -408,39 +408,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>搜索：&lt;测试数据&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;keywords&gt;_百度搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords=&lt;_keywords&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度搜索页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_title&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAIDU_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;title&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索：&lt;测试数据&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;keywords&gt;_百度搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keywords=&lt;_keywords&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度搜索页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_title&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAIDU_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,7 +943,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1221,7 +1221,7 @@
         <v>79</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1303,7 +1303,7 @@
         <v>79</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1465,7 +1465,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="23" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="2">
@@ -1595,13 +1595,13 @@
         <v>55</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1617,7 +1617,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>57</v>
@@ -1647,7 +1647,7 @@
         <v>79</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>

--- a/sweetest/testcase/Baidu-TestCase.xlsx
+++ b/sweetest/testcase/Baidu-TestCase.xlsx
@@ -28,10 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>步骤编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,6 +437,10 @@
   </si>
   <si>
     <t>&lt;title&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,7 +943,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -967,73 +967,73 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -1048,16 +1048,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="3"/>
@@ -1068,30 +1068,30 @@
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1106,13 +1106,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1130,16 +1130,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1150,28 +1150,28 @@
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1188,13 +1188,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1212,16 +1212,16 @@
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1232,26 +1232,26 @@
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1268,17 +1268,17 @@
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
@@ -1294,16 +1294,16 @@
         <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1314,26 +1314,26 @@
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1350,13 +1350,13 @@
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="3"/>
@@ -1371,16 +1371,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="3"/>
@@ -1395,16 +1395,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1419,16 +1419,16 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1440,32 +1440,32 @@
     </row>
     <row r="18" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1478,17 +1478,17 @@
         <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
@@ -1504,16 +1504,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1530,17 +1530,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="4"/>
@@ -1556,16 +1556,16 @@
         <v>5</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1576,32 +1576,32 @@
     </row>
     <row r="23" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="H23" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1614,13 +1614,13 @@
         <v>2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="3"/>
@@ -1638,16 +1638,16 @@
         <v>3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1756,96 +1756,96 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1853,7 +1853,7 @@
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1861,7 +1861,7 @@
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1869,7 +1869,7 @@
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1877,7 +1877,7 @@
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1885,7 +1885,7 @@
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1893,7 +1893,7 @@
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1901,7 +1901,7 @@
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1909,7 +1909,7 @@
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1917,7 +1917,7 @@
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>

--- a/sweetest/testcase/Baidu-TestCase.xlsx
+++ b/sweetest/testcase/Baidu-TestCase.xlsx
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新窗口=百度搜索窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>百度一下\，你就知道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,6 +437,10 @@
   </si>
   <si>
     <t>测试步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签页名=百度搜索窗口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,7 +943,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -973,7 +973,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>11</v>
@@ -1029,7 +1029,7 @@
         <v>38</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="3" t="s">
@@ -1051,13 +1051,13 @@
         <v>28</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="3"/>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2">
@@ -1081,17 +1081,17 @@
         <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1109,10 +1109,10 @@
         <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1136,10 +1136,10 @@
         <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>30</v>
@@ -1165,13 +1165,13 @@
         <v>16</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1191,10 +1191,10 @@
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1218,10 +1218,10 @@
         <v>11</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1232,26 +1232,26 @@
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1271,14 +1271,14 @@
         <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
@@ -1300,10 +1300,10 @@
         <v>11</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1314,26 +1314,26 @@
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1353,10 +1353,10 @@
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="3"/>
@@ -1371,16 +1371,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="3"/>
@@ -1395,16 +1395,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1419,16 +1419,16 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1440,32 +1440,32 @@
     </row>
     <row r="18" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1481,14 +1481,14 @@
         <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
@@ -1510,10 +1510,10 @@
         <v>11</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1533,14 +1533,14 @@
         <v>14</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="4"/>
@@ -1559,13 +1559,13 @@
         <v>13</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1576,32 +1576,32 @@
     </row>
     <row r="23" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1617,10 +1617,10 @@
         <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="3"/>
@@ -1644,10 +1644,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1765,10 +1765,10 @@
         <v>32</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -1776,14 +1776,14 @@
         <v>18</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -1791,7 +1791,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="9" t="s">
@@ -1803,7 +1803,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="9" t="s">
@@ -1815,7 +1815,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1825,7 +1825,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1835,7 +1835,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1845,7 +1845,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1853,7 +1853,7 @@
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1861,7 +1861,7 @@
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1869,7 +1869,7 @@
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1877,7 +1877,7 @@
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1885,7 +1885,7 @@
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1893,7 +1893,7 @@
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1901,7 +1901,7 @@
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>

--- a/sweetest/testcase/Baidu-TestCase.xlsx
+++ b/sweetest/testcase/Baidu-TestCase.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
   <si>
     <t>HOME_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,346 +127,275 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SNIPPET_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link#注册机构号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button#提问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新股预告表格#2#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询User表#STR_GSYL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度一下\，你就知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;keywords&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例片段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;title&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords=知乎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*&lt;name&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STKID=000590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button#注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNIPPET_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度搜索页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度搜索页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*雪球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪球行情中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试_百度搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例片段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stkpoolid=STKPOOLID,stkid=STKID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STKID=&lt;stkid&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNIPPET_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords=&lt;_keywords&gt;, title=&lt;_title&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNIPPET_001*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;title&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;keywords&gt;_百度搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords=搜狗,title=搜狗搜索引擎 - 上网从搜狗开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签页名=百度搜索窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查的预期结果建议写在测试数据列，也可以写在预期结果列。如果没有 http 接口测试，可以删除预期结果列。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sql#select STKPOOLID,STKID,STKNAME from ir_stkpool_member_etl where STKPOOLID='&lt;stkpoolid&gt;'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNIPPET_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索结果#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link#注册机构号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button#提问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新股预告表格#2#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询User表#STR_GSYL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度一下\，你就知道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;keywords&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例片段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;title&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keywords=知乎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*&lt;name&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oracle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STKID=000590</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sonar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目状态#sweetest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api 测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button#注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNIPPET_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录#http://vwt-sonar/api/authentication/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://vwt-sonar/api/qualitygates/project_status?projectKey=sweetest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度搜索页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度搜索页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*雪球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪球行情中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化测试_百度搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试步骤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例片段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stkpoolid=STKPOOLID,stkid=STKID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STKID=&lt;stkid&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNIPPET_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keywords=&lt;_keywords&gt;, title=&lt;_title&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNIPPET_001*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;title&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;keywords&gt;_百度搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keywords=搜狗,title=搜狗搜索引擎 - 上网从搜狗开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code=status_code,
-json={"projectStatus":{"status":"&lt;status&gt;"}}</t>
-  </si>
-  <si>
-    <t>status_code=&lt;code&gt;,text=*OK,json={"projectStatus":{"status":"&lt;status&gt;"}}</t>
-  </si>
-  <si>
-    <t>data={'login': 'admin'\, 'password': '123456'}, status_code=200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_code=200,text=*OK,json={"projectStatus":{"status":"OK"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签页名=百度搜索窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查的预期结果建议写在测试数据列，也可以写在预期结果列。如果没有 http 接口测试，可以删除预期结果列。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data={'login': 'admin'\, 'password': '123456'}, headers={'Content-Type':'application/x-www-form-urlencoded'},status_code=200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http 接口测试，预期结果可以写在测试数据列，也可以写在预期结果列，建议写在预期结果列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http 接口测试，data，headers 是测试数据，必须写在测试数据列，status_code，json 是预期结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,12 +864,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -963,52 +892,52 @@
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -1025,14 +954,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -1056,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -1085,14 +1014,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1113,11 +1042,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="3"/>
@@ -1137,14 +1066,14 @@
         <v>3</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1154,7 +1083,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -1171,16 +1100,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1199,11 +1128,11 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="3"/>
@@ -1223,14 +1152,14 @@
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1249,11 +1178,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="3"/>
@@ -1277,10 +1206,10 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1303,16 +1232,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="G12" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1331,13 +1260,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="3"/>
@@ -1359,14 +1288,14 @@
         <v>3</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1389,23 +1318,23 @@
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1419,11 +1348,11 @@
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="3"/>
@@ -1443,11 +1372,11 @@
         <v>17</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="3"/>
@@ -1467,11 +1396,11 @@
         <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="3"/>
@@ -1491,11 +1420,11 @@
         <v>18</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="3"/>
@@ -1519,13 +1448,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>22</v>
@@ -1535,7 +1464,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1549,13 +1478,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="3"/>
@@ -1577,14 +1506,14 @@
         <v>3</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1603,13 +1532,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="3"/>
@@ -1631,14 +1560,14 @@
         <v>5</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1661,16 +1590,16 @@
         <v>1</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="G25" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1683,35 +1612,35 @@
     </row>
     <row r="26" spans="1:16" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -1725,14 +1654,14 @@
         <v>2</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -1743,132 +1672,12 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:16" s="5" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-    </row>
-    <row r="29" spans="1:16" s="5" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="5" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
-        <v>3</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="5" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
-        <v>4</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" sqref="G2:G4"/>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E32:E1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G5:G31"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E28:E1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G5:G27"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
